--- a/amc_resources/ab_molecules.xlsx
+++ b/amc_resources/ab_molecules.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S400"/>
+  <dimension ref="A1:S461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10337,6 +10337,1348 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>aciclovir</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>aciclovir</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>entecavir</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>entecavir</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ribavirin</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>ribavirin</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>tenofovir</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>tenofovir</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>artenimol</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>artenimol</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>artemether</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>artemether</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>mefloquine</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>mefloquine</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ganciclovir</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>ganciclovir</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>proguanil</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>proguanil</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>emtricitabine</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>emtricitabine</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>artesunate</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>valaciclovir</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>valaciclovir</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>hydroxychloroquine</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>hydroxychloroquine</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>dapsone</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>dapsone</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>valganciclovir</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>valganciclovir</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>fortified</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>procaine benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>sofosbuvir</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>sofosbuvir</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>lamivudine</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>lamivudine</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>famciclovir</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>famciclovir</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>dolutegravir</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>dolutegravir</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>zidovudine</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>zidovudine</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>rilpivirine</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>rilpivirine</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>atazanavir</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>atazanavir</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>darunavir</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>darunavir</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>etravirine</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>etravirine</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>clofazimine</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>clofazimine</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>oseltamivir</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>oseltamivir</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>abacavir</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>abacavir</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>raltegravir</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>raltegravir</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>dihydroartemesinin</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>artemesinin</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>atovaquone</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>atovaquone</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>cabotegravir</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>cabotegravir</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>daclatasvir</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>daclatasvir</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>sulfadoxine</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>sulfadoxine</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>alafenamide</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>alafenamide</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>piperaquine</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>artemisinin ,piperaquine</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>lumefantrine</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>lumefantrine</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>disoproxil</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>tenofovir</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>pyrimethamine</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>pyrimethamine</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>rifapentine</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>rifapentine</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>phosphate</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>artemisinin ,piperaquine</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>velpatasvir</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>velpatasvir</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>ledipasvir</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>ledipasvir</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>piperacillin ,beta,lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>ritonavir</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>ritonavir</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>amodiaquine</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>amodiaquine</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>lactamase</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>piperacillin ,beta,lactamase inhibitor</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>efavirenz</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>efavirenz</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>polymyxin b</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I have edited</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/ab_molecules.xlsx
+++ b/amc_resources/ab_molecules.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S400"/>
+  <dimension ref="A1:S425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10337,6 +10337,431 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>miconazole</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>miconazole</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>ketoconazole</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>posaconazole</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>isavuconazole</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>isavuconazole</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>oteseconazole</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>oteseconazole</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>caspofungin</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>micafungin</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>anidulafungin</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>griseofulvin</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>terbinafine</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>fosravuconazole</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>fosravuconazole</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>4-aminosalicylic acid</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>4-aminosalicylic acid</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>sodium aminosalicylate</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>sodium aminosalicylate</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>calcium aminosalicylate</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>calcium aminosalicylate</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>cycloserine</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>cycloserine</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>rifabutin</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>rifapentine</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>rifapentine</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>enviomycin</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>enviomycin</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>capreomycin</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>capreomycin</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>protionamide</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>tiocarlide</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>tiocarlide</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ethionamide</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>ethionamide</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>bedaquiline</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>delamanid</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>pretomanid</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/ab_molecules.xlsx
+++ b/amc_resources/ab_molecules.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S425"/>
+  <dimension ref="A1:S434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10762,6 +10762,204 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>rifampic</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>rifamp</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>rifampicin</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>amoxil</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>amoxicillin</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>pyrazin</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ethamb</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>pyraz</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>pyrazinamide</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>trimethoprimmg</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>trimethoprim</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>isoniaz</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>isoniazid</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>etham</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>ethambutol</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/ab_molecules.xlsx
+++ b/amc_resources/ab_molecules.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S434"/>
+  <dimension ref="A1:S438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10960,6 +10960,94 @@
         </is>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>amoxicilline</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>amoxicillin</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>penicillin.</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>flucloxacilline</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>flucloxacillin</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>clavulanate</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>clavulanic acid</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/ab_molecules.xlsx
+++ b/amc_resources/ab_molecules.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S438"/>
+  <dimension ref="A1:S453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11048,6 +11048,336 @@
         </is>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>azithromycine</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>azithromycin</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>cefalexine</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>cefalexin</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ciprofloxacine</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>ciprofloxacin</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>clarithromycine</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>clarithromycin</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>doxycilline</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>doxycycline</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>erythromycine</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>erythromycin</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>gentamicine</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>gentamicin</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>lincomycine</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>lincomycin</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>norfloxacine</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>norfloxacin</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>ofloxacine</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>ofloxacin</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>phenoxymethylpénicilline</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>phenoxymethylpenicillin</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>roxithromycine</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>roxithromycin</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>spiramycine</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>acetylspiramycin</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>benzylpénicilline</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>benzylpenicillin</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>clavulanique</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>clavulanic acid</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
